--- a/public/static/template/kjbb.xlsx
+++ b/public/static/template/kjbb.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
   <si>
     <t>科目</t>
   </si>
@@ -32,9 +32,6 @@
   </si>
   <si>
     <t>营业收入</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>投资收益</t>
@@ -80,7 +77,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -108,19 +105,12 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="20"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="20"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -272,7 +262,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -281,19 +271,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF8F8F8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7030A0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -305,192 +451,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -510,88 +476,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="0"/>
-      </left>
-      <right style="thick">
-        <color theme="0"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="0"/>
-      </left>
-      <right style="thick">
-        <color theme="0"/>
-      </right>
-      <top style="thick">
-        <color theme="0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="0"/>
-      </left>
-      <right style="thick">
-        <color theme="0"/>
-      </right>
-      <top style="thick">
-        <color theme="0"/>
-      </top>
-      <bottom style="mediumDashed">
-        <color rgb="FFFF0000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="0"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="thick">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -698,156 +582,156 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -866,41 +750,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="2" borderId="3" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="6" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="51">
@@ -1226,7 +1080,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B2" sqref="B2:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.46428571428571" defaultRowHeight="14.4" customHeight="1" outlineLevelCol="4"/>
@@ -1259,205 +1113,109 @@
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="6">
-        <v>11757.531157</v>
-      </c>
-      <c r="C2" s="6">
-        <v>18678.067576</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>6</v>
-      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" ht="34.8" customHeight="1" spans="1:5">
       <c r="A3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="8">
-        <v>57148.102607</v>
-      </c>
-      <c r="C3" s="6">
-        <v>22957.543358</v>
-      </c>
-      <c r="D3" s="9">
-        <v>6425.707365</v>
-      </c>
-      <c r="E3" s="8">
-        <v>54091.02608</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" ht="34.8" customHeight="1" spans="1:5">
       <c r="A4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="8">
-        <v>6238.360518</v>
-      </c>
-      <c r="C4" s="8">
-        <v>5134.496619</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>6</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" ht="34.8" customHeight="1" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="10">
-        <v>1072.598222</v>
-      </c>
-      <c r="C5" s="10">
-        <v>2426.4648</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>6</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" ht="34.8" customHeight="1" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="6">
-        <v>730.639538</v>
-      </c>
-      <c r="C6" s="6">
-        <v>8724.107078</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>6</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" ht="34.8" customHeight="1" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="11">
-        <v>21610.860197</v>
-      </c>
-      <c r="C7" s="12">
-        <v>25106.026347</v>
-      </c>
-      <c r="D7" s="8">
-        <v>41.5084</v>
-      </c>
-      <c r="E7" s="6">
-        <v>65.3</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" ht="34.8" customHeight="1" spans="1:5">
       <c r="A8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="12">
-        <v>46735.19043</v>
-      </c>
-      <c r="C8" s="12">
-        <v>24124.706247</v>
-      </c>
-      <c r="D8" s="8">
-        <v>25642.996416</v>
-      </c>
-      <c r="E8" s="8">
-        <v>27898.984505</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" ht="34.8" customHeight="1" spans="1:5">
       <c r="A9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="12">
-        <v>423.916597</v>
-      </c>
-      <c r="C9" s="12">
-        <v>609.893211</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>6</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="6"/>
     </row>
     <row r="10" ht="34.8" customHeight="1" spans="1:5">
       <c r="A10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="6">
-        <v>57.06695</v>
-      </c>
-      <c r="C10" s="6">
-        <v>391.871596</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>6</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="6"/>
     </row>
     <row r="11" ht="32" customHeight="1" spans="1:5">
       <c r="A11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="8">
-        <v>2103.491639</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>6</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="6"/>
     </row>
     <row r="12" ht="42" customHeight="1" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="13">
-        <v>6658.918792</v>
-      </c>
-      <c r="C12" s="14">
-        <v>-9760.032126</v>
-      </c>
-      <c r="D12" s="15">
-        <v>-21362.28909</v>
-      </c>
-      <c r="E12" s="14">
-        <v>26126.741575</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="6"/>
     </row>
     <row r="13" ht="34.8" customHeight="1" spans="1:5">
       <c r="A13" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="16">
-        <v>-76895.666669</v>
-      </c>
-      <c r="C13" s="16">
-        <v>-83554.585461</v>
-      </c>
-      <c r="D13" s="17">
-        <v>-58606.56222</v>
-      </c>
-      <c r="E13" s="17">
-        <v>-37244.27313</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/static/template/kjbb.xlsx
+++ b/public/static/template/kjbb.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
   <si>
     <t>科目</t>
   </si>
@@ -25,10 +25,16 @@
     <t>2021年(控股)</t>
   </si>
   <si>
+    <t>同比(控股)</t>
+  </si>
+  <si>
     <t>2022年(城投)</t>
   </si>
   <si>
     <t>2021年(城投)</t>
+  </si>
+  <si>
+    <t>同比(城投)</t>
   </si>
   <si>
     <t>营业收入</t>
@@ -72,12 +78,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="27">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -111,6 +117,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -119,14 +132,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -135,7 +169,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -143,16 +177,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -164,43 +191,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -218,12 +208,57 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -232,31 +267,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,197 +291,210 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -485,26 +518,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -548,17 +561,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -577,183 +584,215 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1077,23 +1116,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E13"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.46428571428571" defaultRowHeight="14.4" customHeight="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.46428571428571" defaultRowHeight="14.4" customHeight="1" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="13.5714285714286" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.2857142857143" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.6160714285714" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.7232142857143" style="2" customWidth="1"/>
-    <col min="5" max="5" width="23.3571428571429" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7946428571429" style="1" customWidth="1"/>
+    <col min="3" max="4" width="13.3928571428571" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.9821428571429" style="1" customWidth="1"/>
+    <col min="6" max="7" width="13.3928571428571" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.4" customHeight="1" spans="1:5">
-      <c r="A1" s="3" t="s">
+    <row r="1" ht="17.4" customHeight="1" spans="1:7">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -1102,120 +1141,222 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" ht="34.8" customHeight="1" spans="1:5">
-      <c r="A2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="6"/>
+    <row r="2" ht="34.8" customHeight="1" spans="1:7">
+      <c r="A2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6" t="e">
+        <f>(B2-C2)/ABS(C2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E2" s="9"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="6" t="e">
+        <f>(E2-F2)/ABS(F2)</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="3" ht="34.8" customHeight="1" spans="1:5">
-      <c r="A3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="6"/>
+    <row r="3" ht="34.8" customHeight="1" spans="1:7">
+      <c r="A3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6" t="e">
+        <f>(B3-C3)/ABS(C3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="6" t="e">
+        <f>(E3-F3)/ABS(F3)</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="4" ht="34.8" customHeight="1" spans="1:5">
-      <c r="A4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="6"/>
+    <row r="4" ht="34.8" customHeight="1" spans="1:7">
+      <c r="A4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="6" t="e">
+        <f>(B4-C4)/ABS(C4)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="6" t="e">
+        <f>(E4-F4)/ABS(F4)</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="5" ht="34.8" customHeight="1" spans="1:5">
-      <c r="A5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="6"/>
+    <row r="5" ht="34.8" customHeight="1" spans="1:7">
+      <c r="A5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="6" t="e">
+        <f>(B5-C5)/ABS(C5)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="6" t="e">
+        <f>(E5-F5)/ABS(F5)</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="6" ht="34.8" customHeight="1" spans="1:5">
-      <c r="A6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="6"/>
+    <row r="6" ht="34.8" customHeight="1" spans="1:7">
+      <c r="A6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6" t="e">
+        <f>(B6-C6)/ABS(C6)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="6" t="e">
+        <f>(E6-F6)/ABS(F6)</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="7" ht="34.8" customHeight="1" spans="1:5">
-      <c r="A7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="6"/>
+    <row r="7" ht="34.8" customHeight="1" spans="1:7">
+      <c r="A7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6" t="e">
+        <f>(B7-C7)/ABS(C7)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="6" t="e">
+        <f>(E7-F7)/ABS(F7)</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="8" ht="34.8" customHeight="1" spans="1:5">
-      <c r="A8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="6"/>
+    <row r="8" ht="34.8" customHeight="1" spans="1:7">
+      <c r="A8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6" t="e">
+        <f>(B8-C8)/ABS(C8)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="6" t="e">
+        <f>(E8-F8)/ABS(F8)</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="9" ht="34.8" customHeight="1" spans="1:5">
-      <c r="A9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="6"/>
+    <row r="9" ht="34.8" customHeight="1" spans="1:7">
+      <c r="A9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="6" t="e">
+        <f>(B9-C9)/ABS(C9)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="6" t="e">
+        <f>(E9-F9)/ABS(F9)</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="10" ht="34.8" customHeight="1" spans="1:5">
-      <c r="A10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="6"/>
+    <row r="10" ht="34.8" customHeight="1" spans="1:7">
+      <c r="A10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6" t="e">
+        <f>(B10-C10)/ABS(C10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="6" t="e">
+        <f>(E10-F10)/ABS(F10)</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="11" ht="32" customHeight="1" spans="1:5">
-      <c r="A11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="6"/>
+    <row r="11" ht="32" customHeight="1" spans="1:7">
+      <c r="A11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="6" t="e">
+        <f>(B11-C11)/ABS(C11)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="6" t="e">
+        <f>(E11-F11)/ABS(F11)</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="12" ht="42" customHeight="1" spans="1:5">
-      <c r="A12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="6"/>
+    <row r="12" ht="42" customHeight="1" spans="1:7">
+      <c r="A12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="6" t="e">
+        <f>(B12-C12)/ABS(C12)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="6" t="e">
+        <f>(E12-F12)/ABS(F12)</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="13" ht="34.8" customHeight="1" spans="1:5">
-      <c r="A13" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="6"/>
+    <row r="13" ht="34.8" customHeight="1" spans="1:7">
+      <c r="A13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="6" t="e">
+        <f>(B13-C13)/ABS(C13)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="6" t="e">
+        <f>(E13-F13)/ABS(F13)</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
